--- a/resources/stimuli.xlsx
+++ b/resources/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\word-naming\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-word-naming\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1E025-30D1-41AA-8153-E7E5230E16B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F032C-0BEB-4D4F-9DB5-986C9DE45162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFFAE6B3-D452-4DD4-A4FD-CCDEC2CD8BE7}"/>
+    <workbookView xWindow="1128" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFAE6B3-D452-4DD4-A4FD-CCDEC2CD8BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="stimuli" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>emotion</t>
   </si>
   <si>
-    <t>cuestión</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>wrist</t>
   </si>
   <si>
-    <t>lentilla</t>
-  </si>
-  <si>
     <t>lens (contact lens)</t>
   </si>
   <si>
@@ -378,6 +372,12 @@
   </si>
   <si>
     <t>englishWord</t>
+  </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lente </t>
   </si>
 </sst>
 </file>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA974657-F504-4CC5-BBAF-7B388EDFB5B1}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1387,10 +1387,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -1417,10 +1417,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1447,10 +1447,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1476,10 +1476,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1505,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1534,10 +1534,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1563,10 +1563,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -1592,10 +1592,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -1621,10 +1621,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1650,10 +1650,10 @@
         <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -1679,10 +1679,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1708,10 +1708,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -1737,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -1766,10 +1766,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -1795,10 +1795,10 @@
         <v>15</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -1824,10 +1824,10 @@
         <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8</v>
@@ -1853,10 +1853,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -1882,10 +1882,10 @@
         <v>15</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>8</v>
@@ -1911,10 +1911,10 @@
         <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -1940,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -1969,10 +1969,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -1998,10 +1998,10 @@
         <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -2027,10 +2027,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="3">
         <f>LEN(C42)</f>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="43" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>94</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" ref="F43:F61" si="0">LEN(C43)</f>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="45" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="0"/>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="46" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="0"/>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="47" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="0"/>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="0"/>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="0"/>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="0"/>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="0"/>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="0"/>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="0"/>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="0"/>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="0"/>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="0"/>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="0"/>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="0"/>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="0"/>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="0"/>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="0"/>
